--- a/xlsx/test1.xlsx
+++ b/xlsx/test1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlz/Documents/myopenpyxl/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lz/Documents/GitHub/myopenpyxl/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A20286-A691-6E4C-A398-3A08E590610D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C564D4-300D-C548-992D-1631E90CF2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16320" yWindow="500" windowWidth="17280" windowHeight="18760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,6 +24,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t xml:space="preserve">TIN No.: </t>
   </si>
@@ -126,6 +127,9 @@
   </si>
   <si>
     <t>Ref. PROFORMA INVOICE No.:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G11		</t>
   </si>
 </sst>
 </file>
@@ -508,6 +512,31 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -517,10 +546,14 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -538,35 +571,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -903,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -921,52 +925,53 @@
     <row r="1" spans="1:9" ht="118" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="40" t="str">
-        <f>ADDRESS(ROW(), COLUMN(), 4)</f>
-        <v>C4</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
@@ -979,17 +984,17 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -1006,14 +1011,14 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="46" t="str">
+      <c r="H9" s="35" t="str">
         <f>ADDRESS(ROW(), COLUMN(), 4)</f>
         <v>H9</v>
       </c>
-      <c r="I9" s="47"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -1022,64 +1027,64 @@
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="46" t="str">
+      <c r="H10" s="35" t="str">
         <f>ADDRESS(ROW(), COLUMN(), 4)</f>
         <v>H10</v>
       </c>
-      <c r="I10" s="47"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="36" t="str">
+      <c r="B11" s="47" t="str">
         <f>ADDRESS(ROW(), COLUMN(), 4)</f>
         <v>B11</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="31" t="str">
+      <c r="G11" s="42" t="str">
         <f>ADDRESS(ROW(), COLUMN(), 4)</f>
         <v>G11</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="44"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="28" t="str">
+      <c r="G12" s="39" t="str">
         <f>ADDRESS(ROW(), COLUMN(), 4)</f>
         <v>G12</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="41"/>
     </row>
     <row r="13" spans="1:9" ht="97" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
@@ -1096,12 +1101,12 @@
       <c r="A15" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="19" t="s">
         <v>12</v>
       </c>

--- a/xlsx/test1.xlsx
+++ b/xlsx/test1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lz/Documents/GitHub/myopenpyxl/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lz/Documents/myopenpyxl/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C564D4-300D-C548-992D-1631E90CF2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2599C5-14CB-C64B-8105-41537E4255D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16320" yWindow="500" windowWidth="17280" windowHeight="18760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">TIN No.: </t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>Sales &amp; Marketing Manager</t>
-  </si>
-  <si>
-    <t>LC NUMBER.:</t>
   </si>
   <si>
     <t>SN.</t>
@@ -129,18 +126,19 @@
     <t>Ref. PROFORMA INVOICE No.:</t>
   </si>
   <si>
-    <t xml:space="preserve">G11		</t>
+    <t>Ref. LC NUMBER.:</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -161,7 +159,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -189,7 +187,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -239,7 +237,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -247,7 +245,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -257,6 +255,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -454,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -537,6 +542,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -573,7 +579,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -907,11 +913,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
@@ -922,9 +928,9 @@
     <col min="9" max="9" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="118" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="118" customHeight="1"/>
+    <row r="2" spans="1:9" hidden="1"/>
+    <row r="3" spans="1:9">
       <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
@@ -943,13 +949,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="16" customHeight="1">
       <c r="A4" s="24" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B4" s="25"/>
-      <c r="C4" s="24" t="s">
-        <v>25</v>
+      <c r="C4" s="24" t="str">
+        <f>ADDRESS(ROW(), COLUMN(), 4)</f>
+        <v>C4</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="26"/>
@@ -958,14 +965,15 @@
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
     </row>
-    <row r="5" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="16" customHeight="1">
       <c r="A5" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="24" t="s">
-        <v>25</v>
+      <c r="D5" s="24" t="str">
+        <f>ADDRESS(ROW(), COLUMN(), 4)</f>
+        <v>D5</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="28"/>
@@ -973,7 +981,7 @@
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
     </row>
-    <row r="6" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="16" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -983,20 +991,20 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:9" ht="34" customHeight="1">
+      <c r="A7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="13"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
@@ -1004,7 +1012,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1014,13 +1022,13 @@
       <c r="G9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="35" t="str">
+      <c r="H9" s="36" t="str">
         <f>ADDRESS(ROW(), COLUMN(), 4)</f>
         <v>H9</v>
       </c>
-      <c r="I9" s="36"/>
-    </row>
-    <row r="10" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="37"/>
+    </row>
+    <row r="10" spans="1:9" ht="17" customHeight="1" thickBot="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1030,63 +1038,63 @@
       <c r="G10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="35" t="str">
+      <c r="H10" s="36" t="str">
         <f>ADDRESS(ROW(), COLUMN(), 4)</f>
         <v>H10</v>
       </c>
-      <c r="I10" s="36"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="47" t="str">
+      <c r="B11" s="48" t="str">
         <f>ADDRESS(ROW(), COLUMN(), 4)</f>
         <v>B11</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="42" t="str">
+      <c r="G11" s="43" t="str">
         <f>ADDRESS(ROW(), COLUMN(), 4)</f>
         <v>G11</v>
       </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="44"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="47"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="39" t="str">
+      <c r="G12" s="40" t="str">
         <f>ADDRESS(ROW(), COLUMN(), 4)</f>
         <v>G12</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41"/>
-    </row>
-    <row r="13" spans="1:9" ht="97" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
+    </row>
+    <row r="13" spans="1:9" ht="97" customHeight="1" thickBot="1">
+      <c r="A13" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-    </row>
-    <row r="14" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1097,16 +1105,16 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="30" customHeight="1">
       <c r="A15" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="19" t="s">
         <v>12</v>
       </c>
@@ -1120,7 +1128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="20"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1129,11 +1137,11 @@
       <c r="F16" s="10"/>
       <c r="G16" s="15"/>
       <c r="H16" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="6"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1142,11 +1150,11 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1155,23 +1163,28 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1186,6 +1199,7 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:E12"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
